--- a/data/trans_camb/P17G_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P17G_R2-Habitat-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>0.5811651528810546</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-0.2312395540144145</v>
+        <v>-0.2312395540144144</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.1202448762685542</v>
+        <v>-0.004163099194240567</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.2295115848049442</v>
+        <v>-0.2401955873575805</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.5139617808020561</v>
+        <v>-0.5348472535315273</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.564672930735349</v>
+        <v>-1.772766117554385</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.5980178490166465</v>
+        <v>-0.5588040751954789</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.636025404697195</v>
+        <v>-1.725236521838756</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.658285283323762</v>
+        <v>-0.6783349557662841</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.1616256057086664</v>
+        <v>-0.2110079075129429</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.7939779016969832</v>
+        <v>-0.7849895430846724</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.485365255451615</v>
+        <v>1.623955278134167</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.393580905339754</v>
+        <v>1.38138590050592</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7091198286947153</v>
+        <v>0.6828337562379785</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2056645064401438</v>
+        <v>0.1815196709471429</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.026226783288996</v>
+        <v>2.146245059291257</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1419084355486576</v>
+        <v>0.1341604707884411</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5430584938490977</v>
+        <v>0.5892186906363549</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.36940783964746</v>
+        <v>1.351902028098564</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2428377484969979</v>
+        <v>0.2627818406070045</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.816460772397175</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.3248612273868179</v>
+        <v>-0.3248612273868178</v>
       </c>
     </row>
     <row r="8">
@@ -780,29 +780,27 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7150082377540421</v>
-      </c>
-      <c r="D8" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.5307878273601095</v>
+      </c>
+      <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="n">
-        <v>-0.9074653641244094</v>
+        <v>-1</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4023068050646426</v>
+        <v>-0.4498076941394397</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.8193331744486447</v>
+        <v>-0.8250529822859182</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.6638235254005297</v>
+        <v>-0.6934476059905552</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2753608904013902</v>
+        <v>-0.2344346174189468</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.7303023329877084</v>
+        <v>-0.7251850637129691</v>
       </c>
     </row>
     <row r="9">
@@ -816,22 +814,22 @@
       <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="n">
-        <v>0.9355178435102057</v>
+        <v>0.5781658836229505</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.028588616573113</v>
+        <v>3.6427224500427</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4367021336148758</v>
+        <v>0.3630272666037196</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.617949069568917</v>
+        <v>1.4618690870565</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.959593095097744</v>
+        <v>3.559553534755692</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.7061981503554136</v>
+        <v>0.8093555812515</v>
       </c>
     </row>
     <row r="10">
@@ -861,7 +859,7 @@
         <v>-0.84343208221345</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-0.3935400046862346</v>
+        <v>-0.393540004686235</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-0.2489199668361372</v>
@@ -881,31 +879,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.908005551232908</v>
+        <v>-0.9786611791484341</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.147344660900034</v>
+        <v>-0.219068095980795</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.1669725396165631</v>
+        <v>-0.132948317565751</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.027586381224549</v>
+        <v>-1.907861885752102</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.15679177522421</v>
+        <v>-2.031936452884949</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.620059648516592</v>
+        <v>-1.693700086362586</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.080011695673637</v>
+        <v>-1.051645901678239</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.7197501662574955</v>
+        <v>-0.7332920555298706</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.5224138129432341</v>
+        <v>-0.5596093032676138</v>
       </c>
     </row>
     <row r="12">
@@ -916,31 +914,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.251447565678427</v>
+        <v>1.203584138733845</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.395116133741666</v>
+        <v>2.33052001374812</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.335012884600202</v>
+        <v>2.360535018211106</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6140640888932478</v>
+        <v>0.7724185245706872</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2900292104159006</v>
+        <v>0.3485972247088844</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7563595354437894</v>
+        <v>0.7479739788219881</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6015706726818056</v>
+        <v>0.6397902341158183</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.054337704304965</v>
+        <v>1.046297065240738</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.275781804998717</v>
+        <v>1.159344758996592</v>
       </c>
     </row>
     <row r="13">
@@ -966,7 +964,7 @@
         <v>-0.4032182885147487</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.1881390695208478</v>
+        <v>-0.188139069520848</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.1536380039950832</v>
@@ -986,31 +984,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5941365069706308</v>
+        <v>-0.5968665959589747</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1595594517465082</v>
+        <v>-0.1837027032721091</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2257124023005129</v>
+        <v>-0.1926948504405253</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.6813805568614887</v>
+        <v>-0.687315470911137</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.719766107808636</v>
+        <v>-0.7305100249099368</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5651919543326092</v>
+        <v>-0.552426192128547</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5221596152772877</v>
+        <v>-0.5314293977032796</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3557138974023188</v>
+        <v>-0.3699671031936193</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2568691907037727</v>
+        <v>-0.2701502214569707</v>
       </c>
     </row>
     <row r="15">
@@ -1021,31 +1019,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.330838886825826</v>
+        <v>1.828453385653506</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>3.446681801857884</v>
+        <v>3.438195850646085</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.270474584133481</v>
+        <v>3.544468109208779</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4489171099990935</v>
+        <v>0.6189224303142141</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.273985273657985</v>
+        <v>0.2992699440102531</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5792309101683737</v>
+        <v>0.5702377906078057</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.544389811575261</v>
+        <v>0.5263780318234289</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.9056254696091315</v>
+        <v>0.8344833156864333</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.014011022774208</v>
+        <v>0.9282498533883973</v>
       </c>
     </row>
     <row r="16">
@@ -1084,7 +1082,7 @@
         <v>-0.7388080841761905</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.2145710025569275</v>
+        <v>0.2145710025569278</v>
       </c>
     </row>
     <row r="17">
@@ -1095,31 +1093,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.326421859540115</v>
+        <v>-2.416342772636902</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.769269228107549</v>
+        <v>-2.718856873667622</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.88495361439787</v>
+        <v>-1.89816304943276</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.428833883585781</v>
+        <v>-2.47893432896409</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.722244914346512</v>
+        <v>-1.713195105469993</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.8682310904757508</v>
+        <v>-0.8745587087748405</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.288739062451628</v>
+        <v>-1.98313316828172</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.846949532541116</v>
+        <v>-1.781622677996171</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.000948839612321</v>
+        <v>-0.8813043970709622</v>
       </c>
     </row>
     <row r="18">
@@ -1130,31 +1128,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6609011965373182</v>
+        <v>0.5045099317213394</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.293505719757921</v>
+        <v>0.1838762344119311</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.460918834556497</v>
+        <v>1.441194597311118</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1472893280054522</v>
+        <v>0.2080833405425941</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.082216713289718</v>
+        <v>1.110717559653063</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.989161774622301</v>
+        <v>2.056490635709048</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-0.1458055132740801</v>
+        <v>0.1161745231780305</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.252211676774143</v>
+        <v>0.2655996221366528</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.373534952372135</v>
+        <v>1.372371678901001</v>
       </c>
     </row>
     <row r="19">
@@ -1189,7 +1187,7 @@
         <v>-0.3391607784207912</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.09850199234742264</v>
+        <v>0.09850199234742281</v>
       </c>
     </row>
     <row r="20">
@@ -1200,31 +1198,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7405703237318839</v>
+        <v>-0.7441642638997034</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.8103534894139893</v>
+        <v>-0.8335038577746952</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.6090056796462113</v>
+        <v>-0.601836748150293</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.8374339620996559</v>
+        <v>-0.8538575392421136</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6229884165541868</v>
+        <v>-0.6066742504446879</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3148928836192027</v>
+        <v>-0.3114430083824369</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.729924332052913</v>
+        <v>-0.7045976604737187</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.6489732039473751</v>
+        <v>-0.6401697950776485</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3558547546590984</v>
+        <v>-0.3158863308027529</v>
       </c>
     </row>
     <row r="21">
@@ -1235,31 +1233,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.5397286562375895</v>
+        <v>0.5371075819002391</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3435063385954959</v>
+        <v>0.2469303315736124</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.000944214666558</v>
+        <v>0.9885535057969509</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.3941146027594988</v>
+        <v>0.3679353697155545</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.8363807844653357</v>
+        <v>1.11904760669326</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.593448033611904</v>
+        <v>1.660656664057831</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.04720089313912133</v>
+        <v>0.1050952651021642</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.196278074602272</v>
+        <v>0.1735396687546432</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.8479779616937361</v>
+        <v>0.8760046757771048</v>
       </c>
     </row>
     <row r="22">
@@ -1280,7 +1278,7 @@
         <v>0.8022971030830252</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2848107385659704</v>
+        <v>0.2848107385659708</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.4766111766670749</v>
@@ -1298,7 +1296,7 @@
         <v>1.057527534565141</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>1.412651486262788</v>
+        <v>1.412651486262789</v>
       </c>
     </row>
     <row r="23">
@@ -1309,31 +1307,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.658351524564977</v>
+        <v>-1.452866975830339</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.5969446494107059</v>
+        <v>-0.6145526040389632</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.007467859066662</v>
+        <v>-0.840405939613157</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.5667623082605217</v>
+        <v>-0.5256854406680108</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1196824888139116</v>
+        <v>0.1444869723109825</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1.207282091406196</v>
+        <v>1.249097276767202</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.7637801968799346</v>
+        <v>-0.7806008236678095</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.0960218135644538</v>
+        <v>0.1196634562587941</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.5959002258649833</v>
+        <v>0.6094953113384197</v>
       </c>
     </row>
     <row r="24">
@@ -1344,31 +1342,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6935116697655818</v>
+        <v>0.8171558569345457</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.220494914329714</v>
+        <v>2.140407895229977</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.434100217708888</v>
+        <v>1.532112443856047</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.558048397165523</v>
+        <v>1.620727298502223</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.683144106608173</v>
+        <v>2.715564599248006</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.78608637181726</v>
+        <v>3.815099455962981</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.910041995999635</v>
+        <v>0.8247405266328558</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.025303504793153</v>
+        <v>2.071809160212688</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.363159873494596</v>
+        <v>2.348062290559748</v>
       </c>
     </row>
     <row r="25">
@@ -1385,7 +1383,7 @@
         <v>0.4282840621401694</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.1520383154637324</v>
+        <v>0.1520383154637326</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.3715593269519716</v>
@@ -1403,7 +1401,7 @@
         <v>0.6763799079784043</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.9035122500870684</v>
+        <v>0.9035122500870688</v>
       </c>
     </row>
     <row r="26">
@@ -1414,31 +1412,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6650137131076702</v>
+        <v>-0.6292314195881069</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2968920489350949</v>
+        <v>-0.2642067813416155</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3886401006335033</v>
+        <v>-0.3808875072694356</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3611722079594231</v>
+        <v>-0.3530506047714617</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.002480274221499789</v>
+        <v>0.007046543693307996</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5477951992333561</v>
+        <v>0.5565142167646953</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4010387190549312</v>
+        <v>-0.4241841552584621</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.03510347510999399</v>
+        <v>0.05412073035062497</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.277274925377547</v>
+        <v>0.3074993548721232</v>
       </c>
     </row>
     <row r="27">
@@ -1449,31 +1447,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.5504320848396529</v>
+        <v>0.6941454468387313</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.65370693433619</v>
+        <v>1.696091608965761</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.185445344707944</v>
+        <v>1.323859991503133</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.937984858982021</v>
+        <v>1.984233021960332</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>3.335493281042889</v>
+        <v>3.001227813355419</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>4.531225067353802</v>
+        <v>4.327327355992646</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8178802591571148</v>
+        <v>0.7173718666388926</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.707829899391201</v>
+        <v>1.821836017081589</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.885361882414201</v>
+        <v>1.904110630738588</v>
       </c>
     </row>
     <row r="28">
@@ -1494,7 +1492,7 @@
         <v>0.3982521361970864</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.3926271205113406</v>
+        <v>0.3926271205113402</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-0.3964928428116682</v>
@@ -1523,31 +1521,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.7737416022351961</v>
+        <v>-0.6792272376577004</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.2330289353823058</v>
+        <v>-0.1926005017304668</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.2115386967156153</v>
+        <v>-0.2573806427215238</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.9961847369896406</v>
+        <v>-0.9931257676601437</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.4975906016425987</v>
+        <v>-0.4312333931446371</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.008096077717649589</v>
+        <v>-0.006137262659924246</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.6663642477661134</v>
+        <v>-0.6925815208537184</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.151247890206</v>
+        <v>-0.187652186816691</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.0716137994817035</v>
+        <v>0.07465986652581069</v>
       </c>
     </row>
     <row r="30">
@@ -1558,31 +1556,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.4711360448927188</v>
+        <v>0.4765409648263563</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.030236481777353</v>
+        <v>1.0505113472654</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.080563065862659</v>
+        <v>1.051837416349668</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.2133608428175967</v>
+        <v>0.2391857359220401</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.8610736860695128</v>
+        <v>0.8534346721525998</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.2731736558929</v>
+        <v>1.279444780541369</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.1976133149576811</v>
+        <v>0.1540660020467588</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.7497484232355525</v>
+        <v>0.7611323436745377</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.9346806692181244</v>
+        <v>1.012501709958984</v>
       </c>
     </row>
     <row r="31">
@@ -1599,7 +1597,7 @@
         <v>0.2802551027262686</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.2762967075148857</v>
+        <v>0.2762967075148854</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.2428172107935559</v>
@@ -1628,31 +1626,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4442576733854888</v>
+        <v>-0.3982235552603673</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1509090112465014</v>
+        <v>-0.1333578418830591</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1319981605950948</v>
+        <v>-0.1571654327752524</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.5003658004446133</v>
+        <v>-0.5174448536136526</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2505192316033547</v>
+        <v>-0.2309146868089786</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.01566029252796551</v>
+        <v>-0.005904364715229313</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.3770261360399242</v>
+        <v>-0.395764083515208</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.09161733400102384</v>
+        <v>-0.1042321431042596</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.03963311172400266</v>
+        <v>0.03641003664975097</v>
       </c>
     </row>
     <row r="33">
@@ -1663,31 +1661,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4184790240223427</v>
+        <v>0.4452049501128256</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.9094708918648786</v>
+        <v>0.8706280597864372</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.9893997992838162</v>
+        <v>0.9677739026268006</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1739342841906837</v>
+        <v>0.1870974668670937</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.6383134096225428</v>
+        <v>0.6434021981584629</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.9596803583947831</v>
+        <v>0.9669702931393304</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.154846828012893</v>
+        <v>0.1144250560853698</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.5555012355263061</v>
+        <v>0.5863294661593417</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.7085946133680481</v>
+        <v>0.7969857315379602</v>
       </c>
     </row>
     <row r="34">
